--- a/Data/Report_05.05.22-05.06.22.xlsx
+++ b/Data/Report_05.05.22-05.06.22.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ЭтаКнига" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DMButenko\Desktop\Мосбиржа PIX\Мосбиржа\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DMButenko\Desktop\Слушатель LINQ\MosPIX\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37A3BDCE-F556-44A8-ABBF-4CE63541D414}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F6DDC71-D812-4FBF-866A-1DB9BB5AF113}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="0" windowWidth="22476" windowHeight="12240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4020" yWindow="4020" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Июнь" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="86">
   <si>
     <t>03.06.2022</t>
   </si>
@@ -47,13 +47,226 @@
     <t>0.47732</t>
   </si>
   <si>
+    <t>127,05103494511019860889968994</t>
+  </si>
+  <si>
     <t>0.47351</t>
   </si>
   <si>
+    <t>130,12079998310489746784650799</t>
+  </si>
+  <si>
     <t>0.47683</t>
   </si>
   <si>
-    <t>Июнь</t>
+    <t>128,36566491202315290564771512</t>
+  </si>
+  <si>
+    <t>31.05.2022</t>
+  </si>
+  <si>
+    <t>61.4443</t>
+  </si>
+  <si>
+    <t>30.05.2022</t>
+  </si>
+  <si>
+    <t>62.1759</t>
+  </si>
+  <si>
+    <t>27.05.2022</t>
+  </si>
+  <si>
+    <t>66.8988</t>
+  </si>
+  <si>
+    <t>18:44:00</t>
+  </si>
+  <si>
+    <t>26.05.2022</t>
+  </si>
+  <si>
+    <t>64.8931</t>
+  </si>
+  <si>
+    <t>25.05.2022</t>
+  </si>
+  <si>
+    <t>59.4685</t>
+  </si>
+  <si>
+    <t>24.05.2022</t>
+  </si>
+  <si>
+    <t>56.6822</t>
+  </si>
+  <si>
+    <t>23.05.2022</t>
+  </si>
+  <si>
+    <t>57.8002</t>
+  </si>
+  <si>
+    <t>20.05.2022</t>
+  </si>
+  <si>
+    <t>60.2207</t>
+  </si>
+  <si>
+    <t>19.05.2022</t>
+  </si>
+  <si>
+    <t>61.6243</t>
+  </si>
+  <si>
+    <t>18.05.2022</t>
+  </si>
+  <si>
+    <t>63.448</t>
+  </si>
+  <si>
+    <t>17.05.2022</t>
+  </si>
+  <si>
+    <t>63.6067</t>
+  </si>
+  <si>
+    <t>16.05.2022</t>
+  </si>
+  <si>
+    <t>63.5505</t>
+  </si>
+  <si>
+    <t>13.05.2022</t>
+  </si>
+  <si>
+    <t>64.1814</t>
+  </si>
+  <si>
+    <t>12.05.2022</t>
+  </si>
+  <si>
+    <t>63.3116</t>
+  </si>
+  <si>
+    <t>11.05.2022</t>
+  </si>
+  <si>
+    <t>66.8708</t>
+  </si>
+  <si>
+    <t>06.05.2022</t>
+  </si>
+  <si>
+    <t>69.2049</t>
+  </si>
+  <si>
+    <t>05.05.2022</t>
+  </si>
+  <si>
+    <t>67.2099</t>
+  </si>
+  <si>
+    <t>0.48055</t>
+  </si>
+  <si>
+    <t>127,86244927687025283529289356</t>
+  </si>
+  <si>
+    <t>0.49675</t>
+  </si>
+  <si>
+    <t>125,16537493709109209864116759</t>
+  </si>
+  <si>
+    <t>0.52282</t>
+  </si>
+  <si>
+    <t>127,95761447534524310470142688</t>
+  </si>
+  <si>
+    <t>0.48674</t>
+  </si>
+  <si>
+    <t>133,32189670049718535563134322</t>
+  </si>
+  <si>
+    <t>0.44341</t>
+  </si>
+  <si>
+    <t>134,11628064319704111319095194</t>
+  </si>
+  <si>
+    <t>0.44552</t>
+  </si>
+  <si>
+    <t>127,22706051355719159633686479</t>
+  </si>
+  <si>
+    <t>0.45561</t>
+  </si>
+  <si>
+    <t>126,86332609029652553719189658</t>
+  </si>
+  <si>
+    <t>0.46091</t>
+  </si>
+  <si>
+    <t>130,65609338048642902085005749</t>
+  </si>
+  <si>
+    <t>0.48601</t>
+  </si>
+  <si>
+    <t>126,79636221476924343120511924</t>
+  </si>
+  <si>
+    <t>0.49157</t>
+  </si>
+  <si>
+    <t>129,07215655959476778485261509</t>
+  </si>
+  <si>
+    <t>0.49129</t>
+  </si>
+  <si>
+    <t>129,46874554743634106128763052</t>
+  </si>
+  <si>
+    <t>0.49201</t>
+  </si>
+  <si>
+    <t>129,16505762078006544582427186</t>
+  </si>
+  <si>
+    <t>0.4948</t>
+  </si>
+  <si>
+    <t>129,71180274858528698464025869</t>
+  </si>
+  <si>
+    <t>0.5071</t>
+  </si>
+  <si>
+    <t>124,85032537960954446854663774</t>
+  </si>
+  <si>
+    <t>0.52791</t>
+  </si>
+  <si>
+    <t>126,67083404368168816654353962</t>
+  </si>
+  <si>
+    <t>0.51636</t>
+  </si>
+  <si>
+    <t>134,02451777829421333953056007</t>
+  </si>
+  <si>
+    <t>0.50925</t>
+  </si>
+  <si>
+    <t>131,97820324005891016200294551</t>
   </si>
   <si>
     <t>Дата</t>
@@ -66,165 +279,6 @@
   </si>
   <si>
     <t>Результат</t>
-  </si>
-  <si>
-    <t>31.05.2022</t>
-  </si>
-  <si>
-    <t>61.4443</t>
-  </si>
-  <si>
-    <t>30.05.2022</t>
-  </si>
-  <si>
-    <t>62.1759</t>
-  </si>
-  <si>
-    <t>27.05.2022</t>
-  </si>
-  <si>
-    <t>66.8988</t>
-  </si>
-  <si>
-    <t>18:44:00</t>
-  </si>
-  <si>
-    <t>26.05.2022</t>
-  </si>
-  <si>
-    <t>64.8931</t>
-  </si>
-  <si>
-    <t>25.05.2022</t>
-  </si>
-  <si>
-    <t>59.4685</t>
-  </si>
-  <si>
-    <t>24.05.2022</t>
-  </si>
-  <si>
-    <t>56.6822</t>
-  </si>
-  <si>
-    <t>23.05.2022</t>
-  </si>
-  <si>
-    <t>57.8002</t>
-  </si>
-  <si>
-    <t>20.05.2022</t>
-  </si>
-  <si>
-    <t>60.2207</t>
-  </si>
-  <si>
-    <t>19.05.2022</t>
-  </si>
-  <si>
-    <t>61.6243</t>
-  </si>
-  <si>
-    <t>18.05.2022</t>
-  </si>
-  <si>
-    <t>63.448</t>
-  </si>
-  <si>
-    <t>17.05.2022</t>
-  </si>
-  <si>
-    <t>63.6067</t>
-  </si>
-  <si>
-    <t>16.05.2022</t>
-  </si>
-  <si>
-    <t>63.5505</t>
-  </si>
-  <si>
-    <t>13.05.2022</t>
-  </si>
-  <si>
-    <t>64.1814</t>
-  </si>
-  <si>
-    <t>12.05.2022</t>
-  </si>
-  <si>
-    <t>63.3116</t>
-  </si>
-  <si>
-    <t>11.05.2022</t>
-  </si>
-  <si>
-    <t>66.8708</t>
-  </si>
-  <si>
-    <t>06.05.2022</t>
-  </si>
-  <si>
-    <t>69.2049</t>
-  </si>
-  <si>
-    <t>05.05.2022</t>
-  </si>
-  <si>
-    <t>67.2099</t>
-  </si>
-  <si>
-    <t>0.48055</t>
-  </si>
-  <si>
-    <t>0.49675</t>
-  </si>
-  <si>
-    <t>0.52282</t>
-  </si>
-  <si>
-    <t>0.48674</t>
-  </si>
-  <si>
-    <t>0.44341</t>
-  </si>
-  <si>
-    <t>0.44552</t>
-  </si>
-  <si>
-    <t>0.45561</t>
-  </si>
-  <si>
-    <t>0.46091</t>
-  </si>
-  <si>
-    <t>0.48601</t>
-  </si>
-  <si>
-    <t>0.49157</t>
-  </si>
-  <si>
-    <t>0.49129</t>
-  </si>
-  <si>
-    <t>0.49201</t>
-  </si>
-  <si>
-    <t>0.4948</t>
-  </si>
-  <si>
-    <t>0.5071</t>
-  </si>
-  <si>
-    <t>0.52791</t>
-  </si>
-  <si>
-    <t>0.51636</t>
-  </si>
-  <si>
-    <t>0.50925</t>
-  </si>
-  <si>
-    <t>Май</t>
   </si>
 </sst>
 </file>
@@ -577,45 +631,45 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="31.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>82</v>
       </c>
       <c r="B1" t="s">
-        <v>12</v>
+        <v>83</v>
       </c>
       <c r="C1" t="s">
-        <v>13</v>
+        <v>84</v>
       </c>
       <c r="D1" t="s">
-        <v>11</v>
+        <v>82</v>
       </c>
       <c r="E1" t="s">
-        <v>12</v>
+        <v>83</v>
       </c>
       <c r="F1" t="s">
-        <v>13</v>
+        <v>84</v>
       </c>
       <c r="G1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -635,10 +689,10 @@
         <v>2</v>
       </c>
       <c r="G2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -652,7 +706,7 @@
         <v>3</v>
       </c>
       <c r="E3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F3" t="s">
         <v>2</v>
@@ -661,7 +715,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -675,13 +729,36 @@
         <v>5</v>
       </c>
       <c r="E4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
         <v>2</v>
       </c>
       <c r="G4" t="s">
-        <v>10</v>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G5" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -692,433 +769,456 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Лист2"/>
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="31.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>82</v>
       </c>
       <c r="B1" t="s">
-        <v>12</v>
+        <v>83</v>
       </c>
       <c r="C1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F1" t="s">
+        <v>84</v>
+      </c>
+      <c r="G1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>13</v>
       </c>
-      <c r="D1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="B2" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" t="s">
-        <v>16</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F2" t="s">
         <v>2</v>
       </c>
       <c r="G2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F3" t="s">
         <v>2</v>
       </c>
       <c r="G3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E4" t="s">
         <v>52</v>
       </c>
       <c r="F4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
         <v>21</v>
       </c>
-      <c r="G4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" t="s">
+        <v>54</v>
+      </c>
+      <c r="F5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>22</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="C6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" t="s">
         <v>22</v>
       </c>
-      <c r="E5" t="s">
-        <v>53</v>
-      </c>
-      <c r="F5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="E6" t="s">
+        <v>56</v>
+      </c>
+      <c r="F6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>24</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B7" t="s">
         <v>25</v>
       </c>
-      <c r="C6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="C7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" t="s">
         <v>24</v>
       </c>
-      <c r="E6" t="s">
-        <v>54</v>
-      </c>
-      <c r="F6" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="E7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>26</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" t="s">
         <v>27</v>
       </c>
-      <c r="C7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="C8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" t="s">
         <v>26</v>
       </c>
-      <c r="E7" t="s">
-        <v>55</v>
-      </c>
-      <c r="F7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="E8" t="s">
+        <v>60</v>
+      </c>
+      <c r="F8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>28</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B9" t="s">
         <v>29</v>
       </c>
-      <c r="C8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="C9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" t="s">
         <v>28</v>
       </c>
-      <c r="E8" t="s">
-        <v>56</v>
-      </c>
-      <c r="F8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="E9" t="s">
+        <v>62</v>
+      </c>
+      <c r="F9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>30</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B10" t="s">
         <v>31</v>
       </c>
-      <c r="C9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="C10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" t="s">
         <v>30</v>
       </c>
-      <c r="E9" t="s">
-        <v>57</v>
-      </c>
-      <c r="F9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G9" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="E10" t="s">
+        <v>64</v>
+      </c>
+      <c r="F10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>32</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B11" t="s">
         <v>33</v>
       </c>
-      <c r="C10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="C11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" t="s">
         <v>32</v>
       </c>
-      <c r="E10" t="s">
-        <v>58</v>
-      </c>
-      <c r="F10" t="s">
-        <v>21</v>
-      </c>
-      <c r="G10" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>34</v>
-      </c>
-      <c r="B11" t="s">
-        <v>35</v>
-      </c>
-      <c r="C11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11" t="s">
-        <v>34</v>
-      </c>
       <c r="E11" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="F11" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G11" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" t="s">
+        <v>68</v>
+      </c>
+      <c r="F12" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>36</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B13" t="s">
         <v>37</v>
       </c>
-      <c r="C12" t="s">
-        <v>21</v>
-      </c>
-      <c r="D12" t="s">
+      <c r="C13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" t="s">
         <v>36</v>
       </c>
-      <c r="E12" t="s">
-        <v>60</v>
-      </c>
-      <c r="F12" t="s">
-        <v>21</v>
-      </c>
-      <c r="G12" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+      <c r="E13" t="s">
+        <v>70</v>
+      </c>
+      <c r="F13" t="s">
+        <v>19</v>
+      </c>
+      <c r="G13" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>38</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B14" t="s">
         <v>39</v>
       </c>
-      <c r="C13" t="s">
-        <v>21</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="C14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" t="s">
         <v>38</v>
       </c>
-      <c r="E13" t="s">
-        <v>61</v>
-      </c>
-      <c r="F13" t="s">
-        <v>21</v>
-      </c>
-      <c r="G13" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+      <c r="E14" t="s">
+        <v>72</v>
+      </c>
+      <c r="F14" t="s">
+        <v>19</v>
+      </c>
+      <c r="G14" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>40</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B15" t="s">
         <v>41</v>
       </c>
-      <c r="C14" t="s">
-        <v>21</v>
-      </c>
-      <c r="D14" t="s">
+      <c r="C15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" t="s">
         <v>40</v>
       </c>
-      <c r="E14" t="s">
-        <v>62</v>
-      </c>
-      <c r="F14" t="s">
-        <v>21</v>
-      </c>
-      <c r="G14" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+      <c r="E15" t="s">
+        <v>74</v>
+      </c>
+      <c r="F15" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>42</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B16" t="s">
         <v>43</v>
       </c>
-      <c r="C15" t="s">
-        <v>21</v>
-      </c>
-      <c r="D15" t="s">
+      <c r="C16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" t="s">
         <v>42</v>
       </c>
-      <c r="E15" t="s">
-        <v>63</v>
-      </c>
-      <c r="F15" t="s">
-        <v>21</v>
-      </c>
-      <c r="G15" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+      <c r="E16" t="s">
+        <v>76</v>
+      </c>
+      <c r="F16" t="s">
+        <v>19</v>
+      </c>
+      <c r="G16" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>44</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B17" t="s">
         <v>45</v>
       </c>
-      <c r="C16" t="s">
-        <v>21</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="C17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" t="s">
         <v>44</v>
       </c>
-      <c r="E16" t="s">
-        <v>64</v>
-      </c>
-      <c r="F16" t="s">
-        <v>21</v>
-      </c>
-      <c r="G16" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+      <c r="E17" t="s">
+        <v>78</v>
+      </c>
+      <c r="F17" t="s">
+        <v>19</v>
+      </c>
+      <c r="G17" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>46</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B18" t="s">
         <v>47</v>
       </c>
-      <c r="C17" t="s">
-        <v>21</v>
-      </c>
-      <c r="D17" t="s">
+      <c r="C18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" t="s">
         <v>46</v>
       </c>
-      <c r="E17" t="s">
-        <v>65</v>
-      </c>
-      <c r="F17" t="s">
-        <v>21</v>
-      </c>
-      <c r="G17" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>48</v>
-      </c>
-      <c r="B18" t="s">
-        <v>49</v>
-      </c>
-      <c r="C18" t="s">
-        <v>21</v>
-      </c>
-      <c r="D18" t="s">
-        <v>48</v>
-      </c>
       <c r="E18" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="F18" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G18" t="s">
-        <v>67</v>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>46</v>
+      </c>
+      <c r="B19" t="s">
+        <v>47</v>
+      </c>
+      <c r="C19" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" t="s">
+        <v>46</v>
+      </c>
+      <c r="E19" t="s">
+        <v>80</v>
+      </c>
+      <c r="F19" t="s">
+        <v>19</v>
+      </c>
+      <c r="G19" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>
